--- a/Experiments_Code/Range_Testing_Experiment/Range_Experiment_LowFilt_Dist1.xlsx
+++ b/Experiments_Code/Range_Testing_Experiment/Range_Experiment_LowFilt_Dist1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamin\Desktop\LiDAR_Motion_Comp_Feature_Extract_Repo\LiDAR-Motion-Compensation-and-Feature-Extraction\Experiments_Code\Range_Testing_Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3597F2F6-9269-4511-B1DF-C7372B59F8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A40CB8-B1C2-4759-B263-A43B41D940AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{C8E6D476-C2C5-4779-84C2-B86E920A2673}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8E6D476-C2C5-4779-84C2-B86E920A2673}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3082,7 +3082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B347E44D-83B7-4C35-88CD-85B5D17FA14B}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
